--- a/trunk/División Modificación Procesos.xlsx
+++ b/trunk/División Modificación Procesos.xlsx
@@ -64,7 +64,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +114,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -221,56 +228,57 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D7:K21"/>
+  <dimension ref="D6:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,283 +593,286 @@
     <col min="6" max="6" width="3.140625" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
     <col min="8" max="8" width="2" customWidth="1"/>
-    <col min="9" max="9" width="3" style="2" customWidth="1"/>
-    <col min="10" max="10" width="3.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D6" s="19"/>
+    </row>
     <row r="7" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>7</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="5">
+      <c r="F8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
         <v>3</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f>E8-H8</f>
         <v>4</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>9</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="F9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
         <v>5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f t="shared" ref="I9:I18" si="0">E9-H9</f>
         <v>4</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>5</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="F10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
         <v>2</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>6</v>
       </c>
-      <c r="F11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="F11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
         <v>3</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>4</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="F12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="12">
         <v>2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>5</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="F13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>6</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="F14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
         <v>3</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>8</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="F15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J15" s="15" t="s">
+      <c r="J15" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>4</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9">
-        <v>0</v>
-      </c>
-      <c r="I16" s="10">
+      <c r="F16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>10</v>
       </c>
-      <c r="F17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
+      <c r="F17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>8</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="9">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10">
+      <c r="F18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <f>SUM(I8:I18)</f>
         <v>54</v>
       </c>
@@ -878,10 +889,10 @@
         <f>SUMIF($G$8:$G$18,"JR",$E$8:$E$18)</f>
         <v>35</v>
       </c>
-      <c r="J20" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="18">
+      <c r="J20" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="17">
         <f>SUMIF($J$8:$J$18,"JR",$I$8:$I$18)</f>
         <v>27</v>
       </c>
@@ -898,10 +909,10 @@
         <f>SUMIF($G$8:$G$18,"SR",$E$8:$E$18)</f>
         <v>37</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="11">
+      <c r="J21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
         <f>SUMIF($J$8:$J$18,"SR",$I$8:$I$18)</f>
         <v>27</v>
       </c>

--- a/trunk/División Modificación Procesos.xlsx
+++ b/trunk/División Modificación Procesos.xlsx
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,6 +147,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -228,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -236,16 +242,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
@@ -275,10 +271,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +599,7 @@
   <dimension ref="D6:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,275 +615,275 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="19"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="18"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="21">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="F8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="21">
         <v>3</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="22">
         <f>E8-H8</f>
         <v>4</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="23" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="4">
         <v>9</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="F9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
         <v>5</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="5">
         <f t="shared" ref="I9:I18" si="0">E9-H9</f>
         <v>4</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="17">
         <v>5</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12">
+      <c r="F10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="17">
         <v>2</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="19" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="4">
         <v>6</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="F11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
         <v>3</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>4</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12">
+      <c r="F12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
         <v>2</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="8">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
+      <c r="F13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="4">
         <v>6</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="F14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="4">
         <v>3</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="J14" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <v>8</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="12">
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
+      <c r="F15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="4">
         <v>4</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="9">
+      <c r="F16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="J16" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>10</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="12">
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
+      <c r="F17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="4">
         <v>8</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="F18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -889,10 +905,10 @@
         <f>SUMIF($G$8:$G$18,"JR",$E$8:$E$18)</f>
         <v>35</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="17">
+      <c r="J20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="13">
         <f>SUMIF($J$8:$J$18,"JR",$I$8:$I$18)</f>
         <v>27</v>
       </c>
@@ -909,10 +925,10 @@
         <f>SUMIF($G$8:$G$18,"SR",$E$8:$E$18)</f>
         <v>37</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
+      <c r="J21" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
         <f>SUMIF($J$8:$J$18,"SR",$I$8:$I$18)</f>
         <v>27</v>
       </c>

--- a/trunk/División Modificación Procesos.xlsx
+++ b/trunk/División Modificación Procesos.xlsx
@@ -122,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +153,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -234,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -272,27 +278,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -599,7 +615,7 @@
   <dimension ref="D6:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,32 +634,32 @@
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="15"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>7</v>
       </c>
-      <c r="F8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="F8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="20">
         <v>3</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="21">
         <f>E8-H8</f>
         <v>4</v>
       </c>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -672,26 +688,26 @@
       </c>
     </row>
     <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>5</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="F10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
         <v>2</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -720,26 +736,26 @@
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="25">
         <v>4</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="8">
+      <c r="F12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="25">
         <v>2</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="26">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="27" t="s">
         <v>1</v>
       </c>
     </row>

--- a/trunk/División Modificación Procesos.xlsx
+++ b/trunk/División Modificación Procesos.xlsx
@@ -298,18 +298,18 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +615,7 @@
   <dimension ref="D6:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +634,10 @@
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="23"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="19" t="s">
@@ -736,26 +736,26 @@
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>4</v>
       </c>
-      <c r="F12" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="25">
+      <c r="F12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24">
         <v>2</v>
       </c>
-      <c r="I12" s="26">
+      <c r="I12" s="25">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="26" t="s">
         <v>1</v>
       </c>
     </row>
@@ -856,26 +856,26 @@
       </c>
     </row>
     <row r="17" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="24">
         <v>10</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="9">
+      <c r="F17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="26" t="s">
         <v>1</v>
       </c>
     </row>

--- a/trunk/División Modificación Procesos.xlsx
+++ b/trunk/División Modificación Procesos.xlsx
@@ -258,16 +258,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,6 +300,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -615,7 +615,7 @@
   <dimension ref="D6:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:J17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,35 +631,35 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="14"/>
+      <c r="D6" s="10"/>
     </row>
     <row r="7" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I7" s="27" t="s">
+      <c r="I7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="27"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>7</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="20">
+      <c r="F8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
         <v>3</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="17">
         <f>E8-H8</f>
         <v>4</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -688,26 +688,26 @@
       </c>
     </row>
     <row r="10" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="12">
         <v>5</v>
       </c>
-      <c r="F10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="F10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="12">
         <v>2</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="13">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -736,26 +736,26 @@
       </c>
     </row>
     <row r="12" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>4</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24">
+      <c r="F12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20">
         <v>2</v>
       </c>
-      <c r="I12" s="25">
+      <c r="I12" s="21">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -808,74 +808,74 @@
       </c>
     </row>
     <row r="15" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="12">
         <v>8</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>0</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="F15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="25">
         <v>4</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="F16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="20">
         <v>10</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="24">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25">
+      <c r="F17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <v>0</v>
+      </c>
+      <c r="I17" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -921,10 +921,10 @@
         <f>SUMIF($G$8:$G$18,"JR",$E$8:$E$18)</f>
         <v>35</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="13">
+      <c r="J20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9">
         <f>SUMIF($J$8:$J$18,"JR",$I$8:$I$18)</f>
         <v>27</v>
       </c>
@@ -941,7 +941,7 @@
         <f>SUMIF($G$8:$G$18,"SR",$E$8:$E$18)</f>
         <v>37</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J21" s="7" t="s">
         <v>0</v>
       </c>
       <c r="K21" s="6">
